--- a/Day 1/Testing Day1-Ex3.xlsx
+++ b/Day 1/Testing Day1-Ex3.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\OneDrive\Desktop\Testing\Day 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1BEC47-2F4E-4237-BAFC-AFB90AC05C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89399CAB-3D1A-4526-80B9-3658B9A87512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -617,7 +628,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
